--- a/data/trans_dic/P56$familiar-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiar-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 90,09</t>
+          <t>0,0; 93,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,08; 85,97</t>
+          <t>14,59; 86,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,53; 59,68</t>
+          <t>8,58; 59,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 96,56</t>
+          <t>20,13; 96,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,44 +750,44 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,64; 65,45</t>
+          <t>24,26; 65,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,99; 79,53</t>
+          <t>33,55; 82,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,08; 92,04</t>
+          <t>48,4; 91,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,47</t>
+          <t>0,0; 67,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,12; 68,64</t>
+          <t>29,11; 65,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,15; 67,7</t>
+          <t>30,51; 68,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>48,74; 87,47</t>
+          <t>48,0; 87,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,32</t>
+          <t>0,0; 70,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,59</t>
+          <t>0,0; 40,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,54 +880,54 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,05; 72,0</t>
+          <t>21,27; 71,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,87; 41,92</t>
+          <t>5,85; 49,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 27,6</t>
+          <t>2,89; 24,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,1; 67,93</t>
+          <t>14,35; 67,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,06; 73,3</t>
+          <t>50,95; 72,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,29; 44,53</t>
+          <t>8,46; 43,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 24,01</t>
+          <t>4,13; 22,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,91; 52,44</t>
+          <t>10,99; 53,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,64; 69,16</t>
+          <t>47,01; 69,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,7 +1010,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,76</t>
+          <t>0,0; 51,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,47 +1020,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,39; 75,92</t>
+          <t>38,81; 73,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,98</t>
+          <t>0,0; 43,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,38; 60,23</t>
+          <t>16,0; 55,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,04</t>
+          <t>0,0; 53,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,34; 61,62</t>
+          <t>37,7; 62,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,9</t>
+          <t>0,0; 36,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,88; 46,41</t>
+          <t>11,5; 46,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,94</t>
+          <t>0,0; 33,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>41,89; 61,41</t>
+          <t>43,43; 62,46</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1150,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 76,0</t>
+          <t>11,5; 75,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,51</t>
+          <t>0,0; 34,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,53; 75,27</t>
+          <t>23,57; 75,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,6</t>
+          <t>0,0; 41,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,17; 71,8</t>
+          <t>28,75; 71,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 51,17</t>
+          <t>8,74; 50,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,96; 80,54</t>
+          <t>54,77; 79,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,49</t>
+          <t>0,0; 40,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,96; 65,61</t>
+          <t>31,66; 67,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 37,71</t>
+          <t>6,22; 39,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,59; 73,65</t>
+          <t>48,71; 73,9</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,3; 83,42</t>
+          <t>15,35; 83,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,54 +1300,54 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,98; 65,12</t>
+          <t>19,06; 66,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,18</t>
+          <t>0,0; 65,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,53; 43,24</t>
+          <t>5,6; 47,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,05</t>
+          <t>0,0; 39,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41,55; 70,7</t>
+          <t>42,68; 69,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 59,0</t>
+          <t>5,88; 54,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,03; 48,54</t>
+          <t>12,31; 48,96</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,67</t>
+          <t>0,0; 42,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>37,73; 64,14</t>
+          <t>38,63; 63,51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 72,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,39</t>
+          <t>0,0; 60,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,89</t>
+          <t>0,0; 48,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>37,42; 67,91</t>
+          <t>37,58; 67,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,88</t>
+          <t>0,0; 57,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,06; 57,35</t>
+          <t>10,43; 52,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,49</t>
+          <t>0,0; 34,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>40,75; 61,91</t>
+          <t>41,3; 61,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,87; 52,14</t>
+          <t>6,13; 51,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,29; 44,95</t>
+          <t>13,56; 44,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,66; 31,19</t>
+          <t>3,11; 30,02</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>43,16; 61,05</t>
+          <t>43,84; 60,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,21</t>
+          <t>0,0; 66,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,61</t>
+          <t>0,0; 39,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 41,26</t>
+          <t>4,36; 39,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,75; 71,14</t>
+          <t>23,95; 72,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 77,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,65; 48,15</t>
+          <t>16,37; 48,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,09; 41,27</t>
+          <t>13,67; 42,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,51; 57,76</t>
+          <t>35,58; 58,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,38</t>
+          <t>0,0; 53,6</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,7; 40,86</t>
+          <t>13,65; 38,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,21; 35,8</t>
+          <t>13,13; 35,5</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>36,65; 56,57</t>
+          <t>35,08; 56,34</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,84; 44,14</t>
+          <t>9,23; 44,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,84; 85,84</t>
+          <t>9,37; 85,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,74; 67,25</t>
+          <t>8,65; 63,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31,98; 64,76</t>
+          <t>33,16; 67,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,73; 39,46</t>
+          <t>7,81; 39,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,66; 45,4</t>
+          <t>11,37; 46,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,78; 46,21</t>
+          <t>5,66; 45,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48,06; 66,68</t>
+          <t>47,76; 67,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,53; 36,83</t>
+          <t>11,18; 35,19</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,7; 45,37</t>
+          <t>13,61; 45,13</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,41; 43,7</t>
+          <t>9,86; 42,32</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>46,83; 64,46</t>
+          <t>47,77; 63,65</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,73; 33,45</t>
+          <t>11,14; 32,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,48; 38,19</t>
+          <t>16,3; 37,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,72; 26,4</t>
+          <t>9,78; 26,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>42,63; 57,73</t>
+          <t>42,17; 57,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,32; 27,37</t>
+          <t>11,23; 27,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,77; 36,48</t>
+          <t>23,79; 37,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,83; 32,5</t>
+          <t>19,0; 33,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>51,55; 60,59</t>
+          <t>51,84; 60,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,78; 26,39</t>
+          <t>13,33; 26,2</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>22,94; 34,07</t>
+          <t>23,59; 34,69</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17,31; 29,37</t>
+          <t>17,99; 29,64</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>50,43; 58,63</t>
+          <t>50,26; 57,99</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar no conviviente cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4019</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3344</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3271</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9470</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10512</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6148</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13489</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13856</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9418</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3278</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1029; 6064</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>852; 5920</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1013; 4868</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1366</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5153; 13990</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6171; 15107</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3982; 7520</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4012</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8235; 18656</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8640; 19268</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6363; 11602</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1887</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5326</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2919</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6460</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26245</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4806</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5377</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6460</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>31571</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4857</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4711</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1449</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2596; 8769</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>860; 7213</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1065; 9219</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2557; 12080</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>21358; 30398</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1826; 9436</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2008; 10731</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2562; 12559</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>25441; 37356</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10443</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6390</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16746</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7438</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>27188</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1303</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4781</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1397</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7107; 13427</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5335</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3081; 10715</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5815</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12634; 20872</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5516</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3281; 13132</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5639</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22508; 32369</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4584</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11649</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5752</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13437</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>14950</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6565</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18021</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1146</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>999; 6566</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3500</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2187; 6976</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4504</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6455; 16139</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2180; 12606</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10829; 15790</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5460</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9859; 21168</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2174; 13645</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14150; 21465</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3292</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2973</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2291</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9258</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3101</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>7493</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12232</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3376</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1029; 5598</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 616</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1430; 4975</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5886</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1102; 9366</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4733</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7078; 11559</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>777; 7252</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3250; 12929</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5532</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9304; 15298</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2144</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8774</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2358</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6289</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16377</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3207</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>8433</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4253</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>25151</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2688</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6404</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5245</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6211; 11220</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6114</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2107; 10560</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7692</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>13116; 19635</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>872; 7389</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>4182; 13780</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1025; 9882</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21170; 29283</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3701</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>5575</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>10567</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>10783</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>19530</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1857</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>12593</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>14484</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>25105</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3446</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6106</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>869; 7886</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2972; 8951</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3068</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>5800; 17105</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5863; 18141</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>14919; 24483</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4899</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6960; 19744</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>8253; 22314</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>19063; 30612</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3399</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2658</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>10208</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>6158</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>33093</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>10761</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>11452</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>7707</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>43301</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1773; 8643</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>833; 7640</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>788; 5781</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>6897; 13992</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2337; 11905</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>3420; 13947</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1289; 10333</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>27385; 38674</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>5492; 17295</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>5301; 17578</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3143; 13487</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>37324; 49733</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>9866</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>20290</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>12314</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>51152</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>17006</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>60934</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>43407</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>140834</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>26873</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>81224</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>55722</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>191987</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>5379; 15524</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>12799; 29383</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>7052; 19077</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>43036; 58931</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>10506; 25341</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>48827; 76005</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>32633; 57110</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>130128; 152263</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>18898; 37160</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>66930; 98422</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>43864; 72276</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>177458; 204769</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>